--- a/docs/.vuepress/public/climet/PRE_ET0.xlsx
+++ b/docs/.vuepress/public/climet/PRE_ET0.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\gma\docs\.vuepress\public\climet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF67A86-CA2F-403F-BA40-222C75DA64D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,12 +31,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -38,8 +44,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -85,15 +98,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -135,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +188,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +240,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,14 +433,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,31 +450,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15.19999980926514</v>
       </c>
       <c r="B2">
-        <v>53.40000152587891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>53.400001525878913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7.199999809265137</v>
+        <v>7.1999998092651367</v>
       </c>
       <c r="B3">
-        <v>66.90000152587891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>66.900001525878906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>34.5</v>
       </c>
       <c r="B4">
-        <v>114.4000015258789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>114.40000152587891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>22.79999923706055</v>
       </c>
@@ -423,31 +482,31 @@
         <v>144.1000061035156</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.700000047683716</v>
+        <v>3.7000000476837158</v>
       </c>
       <c r="B6">
         <v>208.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>65.90000152587891</v>
+        <v>65.900001525878906</v>
       </c>
       <c r="B7">
         <v>205.8999938964844</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>160.5</v>
       </c>
       <c r="B8">
-        <v>197.6999969482422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>197.69999694824219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>151.6000061035156</v>
       </c>
@@ -455,87 +514,87 @@
         <v>154.6000061035156</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>78.90000152587891</v>
+        <v>78.900001525878906</v>
       </c>
       <c r="B10">
         <v>111.3000030517578</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15.30000019073486</v>
       </c>
       <c r="B11">
-        <v>107.5999984741211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>107.59999847412109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>28.70000076293945</v>
       </c>
       <c r="B12">
-        <v>64.80000305175781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>64.800003051757813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B13">
-        <v>57.90000152587891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>57.900001525878913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4.699999809265137</v>
+        <v>4.6999998092651367</v>
       </c>
       <c r="B14">
         <v>53.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7.699999809265137</v>
+        <v>7.6999998092651367</v>
       </c>
       <c r="B15">
-        <v>57.70000076293945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>57.700000762939453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>49.5</v>
       </c>
       <c r="B16">
-        <v>98.80000305175781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>98.800003051757813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12.5</v>
       </c>
       <c r="B17">
-        <v>146.3000030517578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>146.30000305175781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>43.59999847412109</v>
+        <v>43.599998474121087</v>
       </c>
       <c r="B18">
         <v>199.3999938964844</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>65.59999847412109</v>
+        <v>65.599998474121094</v>
       </c>
       <c r="B19">
         <v>205.6000061035156</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>210.8999938964844</v>
       </c>
@@ -543,63 +602,63 @@
         <v>206.1000061035156</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>266.3999938964844</v>
+        <v>266.39999389648438</v>
       </c>
       <c r="B21">
         <v>143.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>44.29999923706055</v>
+        <v>44.299999237060547</v>
       </c>
       <c r="B22">
-        <v>120.0999984741211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>120.09999847412109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26.10000038146973</v>
       </c>
       <c r="B23">
-        <v>102.4000015258789</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>102.40000152587891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>27.79999923706055</v>
       </c>
       <c r="B24">
-        <v>75.40000152587891</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>75.400001525878906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.300000011920929</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="B25">
-        <v>66.40000152587891</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>66.400001525878906</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.299999952316284</v>
       </c>
       <c r="B26">
-        <v>51.09999847412109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>51.099998474121087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.900000095367432</v>
+        <v>2.9000000953674321</v>
       </c>
       <c r="B27">
-        <v>72.09999847412109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>72.099998474121094</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30.10000038146973</v>
       </c>
@@ -607,15 +666,15 @@
         <v>109.8000030517578</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>36.70000076293945</v>
+        <v>36.700000762939453</v>
       </c>
       <c r="B29">
         <v>160.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>152.6000061035156</v>
       </c>
@@ -623,7 +682,7 @@
         <v>170.6000061035156</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72.5</v>
       </c>
@@ -631,23 +690,23 @@
         <v>184.1000061035156</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>126.5999984741211</v>
+        <v>126.59999847412109</v>
       </c>
       <c r="B32">
-        <v>166.3000030517578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>166.30000305175781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>131.8000030517578</v>
+        <v>131.80000305175781</v>
       </c>
       <c r="B33">
         <v>157.1000061035156</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>215.1000061035156</v>
       </c>
@@ -655,31 +714,31 @@
         <v>128.6000061035156</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>130.8999938964844</v>
       </c>
       <c r="B35">
-        <v>88.69999694824219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>88.699996948242188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10.80000019073486</v>
       </c>
       <c r="B36">
-        <v>76.90000152587891</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>76.900001525878906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B37">
-        <v>61.59999847412109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>61.599998474121087</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.5</v>
       </c>
@@ -687,23 +746,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3.200000047683716</v>
+        <v>3.2000000476837158</v>
       </c>
       <c r="B39">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6.099999904632568</v>
+        <v>6.0999999046325684</v>
       </c>
       <c r="B40">
-        <v>112.0999984741211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>112.09999847412109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>27.20000076293945</v>
       </c>
@@ -711,15 +770,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>76.30000305175781</v>
+        <v>76.300003051757813</v>
       </c>
       <c r="B42">
-        <v>165.8000030517578</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>165.80000305175781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>92</v>
       </c>
@@ -727,15 +786,15 @@
         <v>190.1000061035156</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>203.3999938964844</v>
       </c>
       <c r="B44">
-        <v>167.6999969482422</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>167.69999694824219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>177.8999938964844</v>
       </c>
@@ -743,7 +802,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>244.8999938964844</v>
       </c>
@@ -751,7 +810,7 @@
         <v>109.3000030517578</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>26.20000076293945</v>
       </c>
@@ -759,63 +818,63 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>37.29999923706055</v>
+        <v>37.299999237060547</v>
       </c>
       <c r="B48">
         <v>66.5</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21.39999961853027</v>
       </c>
       <c r="B49">
-        <v>50.20000076293945</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>50.200000762939453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4.099999904632568</v>
+        <v>4.0999999046325684</v>
       </c>
       <c r="B50">
-        <v>49.79999923706055</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>49.799999237060547</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7.400000095367432</v>
+        <v>7.4000000953674316</v>
       </c>
       <c r="B51">
-        <v>59.70000076293945</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>59.700000762939453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>19.70000076293945</v>
       </c>
       <c r="B52">
-        <v>87.09999847412109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>87.099998474121094</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
       <c r="B53">
-        <v>159.1999969482422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>159.19999694824219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>184.1000061035156</v>
       </c>
       <c r="B54">
-        <v>167.1999969482422</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>167.19999694824219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11.69999980926514</v>
       </c>
@@ -823,71 +882,71 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>97.40000152587891</v>
+        <v>97.400001525878906</v>
       </c>
       <c r="B56">
-        <v>204.3000030517578</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>204.30000305175781</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>119</v>
       </c>
       <c r="B57">
-        <v>168.6999969482422</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>168.69999694824219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>137.8000030517578</v>
+        <v>137.80000305175781</v>
       </c>
       <c r="B58">
-        <v>115.5999984741211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>115.59999847412109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>96</v>
       </c>
       <c r="B59">
-        <v>90.09999847412109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>90.099998474121094</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2.299999952316284</v>
+        <v>2.2999999523162842</v>
       </c>
       <c r="B60">
         <v>81.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
       <c r="B61">
-        <v>57.20000076293945</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>57.200000762939453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3.099999904632568</v>
+        <v>3.0999999046325679</v>
       </c>
       <c r="B62">
-        <v>60.20000076293945</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>60.200000762939453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1.600000023841858</v>
+        <v>1.6000000238418579</v>
       </c>
       <c r="B63">
-        <v>65.80000305175781</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>65.800003051757813</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20.79999923706055</v>
       </c>
@@ -895,7 +954,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>22.29999923706055</v>
       </c>
@@ -903,7 +962,7 @@
         <v>144.6000061035156</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>70</v>
       </c>
@@ -911,55 +970,55 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>39.70000076293945</v>
+        <v>39.700000762939453</v>
       </c>
       <c r="B67">
         <v>200.6000061035156</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>75.09999847412109</v>
+        <v>75.099998474121094</v>
       </c>
       <c r="B68">
         <v>183.5</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>93.40000152587891</v>
+        <v>93.400001525878906</v>
       </c>
       <c r="B69">
         <v>174.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>87.59999847412109</v>
+        <v>87.599998474121094</v>
       </c>
       <c r="B70">
         <v>126.6999969482422</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70.40000152587891</v>
+        <v>70.400001525878906</v>
       </c>
       <c r="B71">
         <v>103.1999969482422</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3.5</v>
       </c>
       <c r="B72">
-        <v>73.69999694824219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>73.699996948242188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>26.10000038146973</v>
       </c>
@@ -967,31 +1026,31 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6.5</v>
       </c>
       <c r="B74">
-        <v>58.40000152587891</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>58.400001525878913</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20.20000076293945</v>
       </c>
       <c r="B75">
-        <v>70.59999847412109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>70.599998474121094</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>42.29999923706055</v>
+        <v>42.299999237060547</v>
       </c>
       <c r="B76">
-        <v>94.90000152587891</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>94.900001525878906</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>23.10000038146973</v>
       </c>
@@ -999,7 +1058,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>100.1999969482422</v>
       </c>
@@ -1007,23 +1066,23 @@
         <v>165.1000061035156</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>144.5</v>
       </c>
       <c r="B79">
-        <v>166.8000030517578</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>166.80000305175781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>45.20000076293945</v>
+        <v>45.200000762939453</v>
       </c>
       <c r="B80">
-        <v>188.1999969482422</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>188.19999694824219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>123.3000030517578</v>
       </c>
@@ -1031,87 +1090,87 @@
         <v>169.1000061035156</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>50.70000076293945</v>
+        <v>50.700000762939453</v>
       </c>
       <c r="B82">
         <v>141.8999938964844</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>89.5</v>
       </c>
       <c r="B83">
-        <v>109.4000015258789</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>109.40000152587891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>29.29999923706055</v>
       </c>
       <c r="B84">
-        <v>70.69999694824219</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>70.699996948242188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B85">
-        <v>50.20000076293945</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>50.200000762939453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B86">
-        <v>57.29999923706055</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>57.299999237060547</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>19.10000038146973</v>
       </c>
       <c r="B87">
-        <v>60.79999923706055</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>60.799999237060547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>34.40000152587891</v>
+        <v>34.400001525878913</v>
       </c>
       <c r="B88">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>37.79999923706055</v>
+        <v>37.799999237060547</v>
       </c>
       <c r="B89">
         <v>147.6000061035156</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>73.90000152587891</v>
+        <v>73.900001525878906</v>
       </c>
       <c r="B90">
-        <v>171.8000030517578</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>171.80000305175781</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>23.10000038146973</v>
       </c>
       <c r="B91">
-        <v>207.1999969482422</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>207.19999694824219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>202.1000061035156</v>
       </c>
@@ -1119,63 +1178,63 @@
         <v>180.8999938964844</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>181.6999969482422</v>
+        <v>181.69999694824219</v>
       </c>
       <c r="B93">
-        <v>157.1999969482422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>157.19999694824219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>80.30000305175781</v>
+        <v>80.300003051757813</v>
       </c>
       <c r="B94">
         <v>108.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>62.09999847412109</v>
+        <v>62.099998474121087</v>
       </c>
       <c r="B95">
-        <v>81.19999694824219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>81.199996948242188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B96">
-        <v>75.69999694824219</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>75.699996948242188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>12.60000038146973</v>
       </c>
       <c r="B97">
-        <v>54.40000152587891</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>54.400001525878913</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>50.40000152587891</v>
+        <v>50.400001525878913</v>
       </c>
       <c r="B98">
-        <v>42.59999847412109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>42.599998474121087</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>38.20000076293945</v>
+        <v>38.200000762939453</v>
       </c>
       <c r="B99">
-        <v>54.29999923706055</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>54.299999237060547</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>31.70000076293945</v>
       </c>
@@ -1183,7 +1242,7 @@
         <v>105.1999969482422</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>22.89999961853027</v>
       </c>
@@ -1191,71 +1250,71 @@
         <v>139.1000061035156</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>64.80000305175781</v>
+        <v>64.800003051757813</v>
       </c>
       <c r="B102">
         <v>166.1000061035156</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>97.59999847412109</v>
+        <v>97.599998474121094</v>
       </c>
       <c r="B103">
         <v>173.5</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>172.1999969482422</v>
+        <v>172.19999694824219</v>
       </c>
       <c r="B104">
         <v>165.5</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>123.6999969482422</v>
       </c>
       <c r="B105">
-        <v>135.1999969482422</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>135.19999694824219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>37.70000076293945</v>
+        <v>37.700000762939453</v>
       </c>
       <c r="B106">
-        <v>124.5999984741211</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>124.59999847412109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="B107">
         <v>103.6999969482422</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>34.09999847412109</v>
+        <v>34.099998474121087</v>
       </c>
       <c r="B108">
-        <v>63.20000076293945</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>63.200000762939453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>49.70000076293945</v>
+        <v>49.700000762939453</v>
       </c>
       <c r="B109">
-        <v>48.59999847412109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>48.599998474121087</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>25.79999923706055</v>
       </c>
@@ -1263,47 +1322,47 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>57.29999923706055</v>
+        <v>57.299999237060547</v>
       </c>
       <c r="B111">
-        <v>53.09999847412109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>53.099998474121087</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>65.40000152587891</v>
+        <v>65.400001525878906</v>
       </c>
       <c r="B112">
         <v>100.8000030517578</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>36.79999923706055</v>
+        <v>36.799999237060547</v>
       </c>
       <c r="B113">
         <v>142.5</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>104.9000015258789</v>
+        <v>104.90000152587891</v>
       </c>
       <c r="B114">
         <v>169.3999938964844</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>147.6999969482422</v>
+        <v>147.69999694824219</v>
       </c>
       <c r="B115">
-        <v>165.6999969482422</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>165.69999694824219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>129.3999938964844</v>
       </c>
@@ -1311,15 +1370,15 @@
         <v>185.6000061035156</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>89.09999847412109</v>
+        <v>89.099998474121094</v>
       </c>
       <c r="B117">
         <v>155</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>51</v>
       </c>
@@ -1327,55 +1386,55 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>9</v>
       </c>
       <c r="B119">
-        <v>87.09999847412109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>87.099998474121094</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>33.20000076293945</v>
+        <v>33.200000762939453</v>
       </c>
       <c r="B120">
-        <v>69.30000305175781</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>69.300003051757813</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121">
-        <v>50.40000152587891</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>50.400001525878913</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>7.699999809265137</v>
+        <v>7.6999998092651367</v>
       </c>
       <c r="B122">
-        <v>50.20000076293945</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>50.200000762939453</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="B123">
-        <v>62.40000152587891</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>62.400001525878913</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>68.80000305175781</v>
+        <v>68.800003051757813</v>
       </c>
       <c r="B124">
-        <v>91.59999847412109</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>91.599998474121094</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>29.10000038146973</v>
       </c>
@@ -1383,95 +1442,95 @@
         <v>135.1000061035156</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>83.59999847412109</v>
+        <v>83.599998474121094</v>
       </c>
       <c r="B126">
         <v>154.6000061035156</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>77.90000152587891</v>
+        <v>77.900001525878906</v>
       </c>
       <c r="B127">
         <v>172.6000061035156</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>91.5</v>
       </c>
       <c r="B128">
-        <v>191.1999969482422</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>191.19999694824219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>68.30000305175781</v>
+        <v>68.300003051757813</v>
       </c>
       <c r="B129">
         <v>150.8999938964844</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>73.30000305175781</v>
+        <v>73.300003051757813</v>
       </c>
       <c r="B130">
-        <v>120.5999984741211</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>120.59999847412109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>7.199999809265137</v>
+        <v>7.1999998092651367</v>
       </c>
       <c r="B131">
         <v>103.1999969482422</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>8.199999809265137</v>
+        <v>8.1999998092651367</v>
       </c>
       <c r="B132">
         <v>71</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>15</v>
       </c>
       <c r="B133">
-        <v>51.79999923706055</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>51.799999237060547</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B134">
-        <v>49.90000152587891</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>49.900001525878913</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>2.099999904632568</v>
+        <v>2.0999999046325679</v>
       </c>
       <c r="B135">
-        <v>70.90000152587891</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>70.900001525878906</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>65.19999694824219</v>
+        <v>65.199996948242188</v>
       </c>
       <c r="B136">
         <v>95.5</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24.29999923706055</v>
       </c>
@@ -1479,15 +1538,15 @@
         <v>160.8999938964844</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>56.59999847412109</v>
+        <v>56.599998474121087</v>
       </c>
       <c r="B138">
-        <v>176.3000030517578</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>176.30000305175781</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>65</v>
       </c>
@@ -1495,7 +1554,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>133.6000061035156</v>
       </c>
@@ -1503,39 +1562,39 @@
         <v>204.5</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>128</v>
       </c>
       <c r="B141">
-        <v>169.6999969482422</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>169.69999694824219</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>112.6999969482422</v>
       </c>
       <c r="B142">
-        <v>123.0999984741211</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>123.09999847412109</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>25.60000038146973</v>
       </c>
       <c r="B143">
-        <v>96.09999847412109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>96.099998474121094</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>26.29999923706055</v>
       </c>
       <c r="B144">
-        <v>82.69999694824219</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>82.699996948242188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>11</v>
       </c>
@@ -1543,23 +1602,23 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>10.89999961853027</v>
       </c>
       <c r="B146">
-        <v>48.59999847412109</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>48.599998474121087</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>25.70000076293945</v>
       </c>
       <c r="B147">
-        <v>75.19999694824219</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>75.199996948242188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>28.20000076293945</v>
       </c>
@@ -1567,15 +1626,15 @@
         <v>106.1999969482422</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>78.59999847412109</v>
+        <v>78.599998474121094</v>
       </c>
       <c r="B149">
         <v>156.6000061035156</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>63</v>
       </c>
@@ -1583,31 +1642,31 @@
         <v>154.6000061035156</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>110.3000030517578</v>
       </c>
       <c r="B151">
-        <v>192.1999969482422</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>192.19999694824219</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>99.59999847412109</v>
+        <v>99.599998474121094</v>
       </c>
       <c r="B152">
         <v>177.1000061035156</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>102.4000015258789</v>
+        <v>102.40000152587891</v>
       </c>
       <c r="B153">
         <v>151.8999938964844</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>17.20000076293945</v>
       </c>
@@ -1615,7 +1674,7 @@
         <v>130.8999938964844</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>30.29999923706055</v>
       </c>
@@ -1623,39 +1682,39 @@
         <v>105.6999969482422</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>95.30000305175781</v>
+        <v>95.300003051757813</v>
       </c>
       <c r="B156">
-        <v>66.30000305175781</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>66.300003051757813</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B157">
-        <v>63.40000152587891</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>63.400001525878913</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2</v>
       </c>
       <c r="B158">
-        <v>66.09999847412109</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>66.099998474121094</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>10</v>
       </c>
       <c r="B159">
-        <v>69.80000305175781</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>69.800003051757813</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>23</v>
       </c>
@@ -1663,15 +1722,15 @@
         <v>109.3000030517578</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>106.5999984741211</v>
+        <v>106.59999847412109</v>
       </c>
       <c r="B161">
         <v>145.8999938964844</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>18.29999923706055</v>
       </c>
@@ -1679,7 +1738,7 @@
         <v>210.8999938964844</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>112.1999969482422</v>
       </c>
@@ -1687,7 +1746,7 @@
         <v>190.3999938964844</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>164.3999938964844</v>
       </c>
@@ -1695,15 +1754,15 @@
         <v>198.3999938964844</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>54.40000152587891</v>
+        <v>54.400001525878913</v>
       </c>
       <c r="B165">
-        <v>192.6999969482422</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>192.69999694824219</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>14.80000019073486</v>
       </c>
@@ -1711,7 +1770,7 @@
         <v>145.5</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>73.5</v>
       </c>
@@ -1719,39 +1778,39 @@
         <v>110.5</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>46.29999923706055</v>
+        <v>46.299999237060547</v>
       </c>
       <c r="B168">
-        <v>75.59999847412109</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>75.599998474121094</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>15.10000038146973</v>
       </c>
       <c r="B169">
-        <v>59.59999847412109</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>59.599998474121087</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="B170">
-        <v>60.90000152587891</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>60.900001525878913</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="B171">
-        <v>71.09999847412109</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>71.099998474121094</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>20</v>
       </c>
@@ -1759,15 +1818,15 @@
         <v>116.6999969482422</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>22.10000038146973</v>
       </c>
       <c r="B173">
-        <v>147.3000030517578</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>147.30000305175781</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>16.5</v>
       </c>
@@ -1775,39 +1834,39 @@
         <v>199.1000061035156</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>59.20000076293945</v>
+        <v>59.200000762939453</v>
       </c>
       <c r="B175">
         <v>209</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>239.1999969482422</v>
+        <v>239.19999694824219</v>
       </c>
       <c r="B176">
         <v>206.5</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>157.3999938964844</v>
       </c>
       <c r="B177">
-        <v>163.3000030517578</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>163.30000305175781</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>21.10000038146973</v>
       </c>
       <c r="B178">
-        <v>128.3000030517578</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>128.30000305175781</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>100.6999969482422</v>
       </c>
@@ -1815,31 +1874,31 @@
         <v>101.3000030517578</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="B180">
-        <v>81.09999847412109</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>81.099998474121094</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.8999999761581421</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="B181">
         <v>59</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>3.900000095367432</v>
+        <v>3.9000000953674321</v>
       </c>
       <c r="B182">
-        <v>56.29999923706055</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>56.299999237060547</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>15.80000019073486</v>
       </c>
@@ -1847,23 +1906,23 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>9.399999618530273</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="B184">
         <v>101.6999969482422</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>34.70000076293945</v>
+        <v>34.700000762939453</v>
       </c>
       <c r="B185">
         <v>137</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>30</v>
       </c>
@@ -1871,7 +1930,7 @@
         <v>178.8999938964844</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>85</v>
       </c>
@@ -1879,7 +1938,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>240.6000061035156</v>
       </c>
@@ -1887,7 +1946,7 @@
         <v>184.8999938964844</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>146</v>
       </c>
@@ -1895,7 +1954,7 @@
         <v>168.3999938964844</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>130.8999938964844</v>
       </c>
@@ -1903,55 +1962,55 @@
         <v>119</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>57.90000152587891</v>
+        <v>57.900001525878913</v>
       </c>
       <c r="B191">
-        <v>109.0999984741211</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>109.09999847412109</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>45.59999847412109</v>
+        <v>45.599998474121087</v>
       </c>
       <c r="B192">
-        <v>70.80000305175781</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>70.800003051757813</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B193">
-        <v>64.40000152587891</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>64.400001525878906</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>8.699999809265137</v>
+        <v>8.6999998092651367</v>
       </c>
       <c r="B194">
-        <v>56.90000152587891</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>56.900001525878913</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>16.70000076293945</v>
       </c>
       <c r="B195">
-        <v>71.09999847412109</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>71.099998474121094</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>33.59999847412109</v>
+        <v>33.599998474121087</v>
       </c>
       <c r="B196">
         <v>109.3000030517578</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>23.29999923706055</v>
       </c>
@@ -1959,71 +2018,71 @@
         <v>144.6000061035156</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>40.40000152587891</v>
+        <v>40.400001525878913</v>
       </c>
       <c r="B198">
-        <v>191.3000030517578</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>191.30000305175781</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>27.39999961853027</v>
       </c>
       <c r="B199">
-        <v>201.8000030517578</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>201.80000305175781</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>75.69999694824219</v>
+        <v>75.699996948242188</v>
       </c>
       <c r="B200">
         <v>208.1000061035156</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>34.79999923706055</v>
+        <v>34.799999237060547</v>
       </c>
       <c r="B201">
         <v>205.6000061035156</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>78.19999694824219</v>
+        <v>78.199996948242188</v>
       </c>
       <c r="B202">
         <v>150.1000061035156</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>5.699999809265137</v>
+        <v>5.6999998092651367</v>
       </c>
       <c r="B203">
         <v>112.3000030517578</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>35.40000152587891</v>
+        <v>35.400001525878913</v>
       </c>
       <c r="B204">
         <v>70</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>3.099999904632568</v>
+        <v>3.0999999046325679</v>
       </c>
       <c r="B205">
-        <v>56.40000152587891</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>56.400001525878913</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>15.10000038146973</v>
       </c>
@@ -2031,55 +2090,55 @@
         <v>53</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>16.89999961853027</v>
       </c>
       <c r="B207">
-        <v>74.40000152587891</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>74.400001525878906</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>81.40000152587891</v>
+        <v>81.400001525878906</v>
       </c>
       <c r="B208">
         <v>110.1999969482422</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>80.19999694824219</v>
+        <v>80.199996948242188</v>
       </c>
       <c r="B209">
-        <v>152.3000030517578</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>152.30000305175781</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>216</v>
       </c>
       <c r="B210">
-        <v>164.3000030517578</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>164.30000305175781</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>49.59999847412109</v>
+        <v>49.599998474121087</v>
       </c>
       <c r="B211">
-        <v>188.8000030517578</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>188.80000305175781</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>200.6999969482422</v>
+        <v>200.69999694824219</v>
       </c>
       <c r="B212">
-        <v>183.6999969482422</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>183.69999694824219</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>205.8999938964844</v>
       </c>
@@ -2087,7 +2146,7 @@
         <v>152.3999938964844</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>24.89999961853027</v>
       </c>
@@ -2095,111 +2154,111 @@
         <v>134.1000061035156</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>9.800000190734863</v>
+        <v>9.8000001907348633</v>
       </c>
       <c r="B215">
-        <v>108.4000015258789</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>108.40000152587891</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>0.8999999761581421</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="B216">
-        <v>75.69999694824219</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>75.699996948242188</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>4.800000190734863</v>
+        <v>4.8000001907348633</v>
       </c>
       <c r="B217">
-        <v>56.70000076293945</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>56.700000762939453</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B218">
-        <v>63.40000152587891</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>63.400001525878913</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="B219">
-        <v>78.30000305175781</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>78.300003051757813</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>41.40000152587891</v>
+        <v>41.400001525878913</v>
       </c>
       <c r="B220">
         <v>102.8000030517578</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>57.09999847412109</v>
+        <v>57.099998474121087</v>
       </c>
       <c r="B221">
-        <v>149.1999969482422</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>149.19999694824219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>59.79999923706055</v>
+        <v>59.799999237060547</v>
       </c>
       <c r="B222">
         <v>179.1000061035156</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>55.79999923706055</v>
+        <v>55.799999237060547</v>
       </c>
       <c r="B223">
         <v>178.3999938964844</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>174.1000061035156</v>
       </c>
       <c r="B224">
-        <v>176.3000030517578</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>176.30000305175781</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>51.59999847412109</v>
+        <v>51.599998474121087</v>
       </c>
       <c r="B225">
         <v>169.1000061035156</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>87.40000152587891</v>
+        <v>87.400001525878906</v>
       </c>
       <c r="B226">
         <v>135.8999938964844</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>87.5</v>
       </c>
       <c r="B227">
-        <v>85.19999694824219</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>85.199996948242188</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>12.80000019073486</v>
       </c>
@@ -2207,39 +2266,39 @@
         <v>69</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="B229">
-        <v>62.20000076293945</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>62.200000762939453</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>23</v>
       </c>
       <c r="B230">
-        <v>45.79999923706055</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>45.799999237060547</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2.5</v>
       </c>
       <c r="B231">
-        <v>66.30000305175781</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>66.300003051757813</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="B232">
         <v>123.6999969482422</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>28.89999961853027</v>
       </c>
@@ -2247,39 +2306,39 @@
         <v>157.6000061035156</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>17.79999923706055</v>
       </c>
       <c r="B234">
-        <v>194.6999969482422</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>194.69999694824219</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>96.69999694824219</v>
+        <v>96.699996948242188</v>
       </c>
       <c r="B235">
         <v>181.5</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>211.6000061035156</v>
       </c>
       <c r="B236">
-        <v>177.8000030517578</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>177.80000305175781</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>163.1999969482422</v>
+        <v>163.19999694824219</v>
       </c>
       <c r="B237">
         <v>154.3999938964844</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>123.5</v>
       </c>
@@ -2287,23 +2346,23 @@
         <v>119.6999969482422</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>81.40000152587891</v>
+        <v>81.400001525878906</v>
       </c>
       <c r="B239">
         <v>94</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>23.5</v>
       </c>
       <c r="B240">
-        <v>67.19999694824219</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>67.199996948242188</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3</v>
       </c>
@@ -2311,15 +2370,15 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>41.09999847412109</v>
+        <v>41.099998474121087</v>
       </c>
       <c r="B242">
-        <v>51.40000152587891</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>51.400001525878913</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>17.5</v>
       </c>
@@ -2327,39 +2386,39 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>3.5</v>
       </c>
       <c r="B244">
-        <v>125.5999984741211</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>125.59999847412109</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>19</v>
       </c>
       <c r="B245">
-        <v>144.1999969482422</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>144.19999694824219</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>4.199999809265137</v>
+        <v>4.1999998092651367</v>
       </c>
       <c r="B246">
         <v>187.5</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>85.59999847412109</v>
+        <v>85.599998474121094</v>
       </c>
       <c r="B247">
         <v>187.6000061035156</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>200.8999938964844</v>
       </c>
@@ -2367,63 +2426,63 @@
         <v>198.6000061035156</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>40.5</v>
       </c>
       <c r="B249">
-        <v>155.3000030517578</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>155.30000305175781</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>42.79999923706055</v>
+        <v>42.799999237060547</v>
       </c>
       <c r="B250">
         <v>123.5</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>49.79999923706055</v>
+        <v>49.799999237060547</v>
       </c>
       <c r="B251">
         <v>95.5</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2.5</v>
       </c>
       <c r="B252">
-        <v>66.30000305175781</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>66.300003051757813</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>29.29999923706055</v>
       </c>
       <c r="B253">
-        <v>52.59999847412109</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>52.599998474121087</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>6.800000190734863</v>
+        <v>6.8000001907348633</v>
       </c>
       <c r="B254">
-        <v>62.79999923706055</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>62.799999237060547</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
       <c r="B255">
-        <v>74.30000305175781</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>74.300003051757813</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27.39999961853027</v>
       </c>
@@ -2431,7 +2490,7 @@
         <v>118.6999969482422</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>36</v>
       </c>
@@ -2439,7 +2498,7 @@
         <v>145.3999938964844</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>120</v>
       </c>
@@ -2447,183 +2506,183 @@
         <v>155.3999938964844</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>105.6999969482422</v>
       </c>
       <c r="B259">
-        <v>194.1999969482422</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>194.19999694824219</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>93.90000152587891</v>
+        <v>93.900001525878906</v>
       </c>
       <c r="B260">
-        <v>183.8000030517578</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>183.80000305175781</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>66.30000305175781</v>
+        <v>66.300003051757813</v>
       </c>
       <c r="B261">
         <v>159.1000061035156</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>91.59999847412109</v>
+        <v>91.599998474121094</v>
       </c>
       <c r="B262">
-        <v>134.6999969482422</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>134.69999694824219</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>43.09999847412109</v>
+        <v>43.099998474121087</v>
       </c>
       <c r="B263">
-        <v>103.9000015258789</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>103.90000152587891</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>2.400000095367432</v>
+        <v>2.4000000953674321</v>
       </c>
       <c r="B264">
-        <v>68.90000152587891</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>68.900001525878906</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>27.89999961853027</v>
       </c>
       <c r="B265">
-        <v>46.29999923706055</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>46.299999237060547</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>6.699999809265137</v>
+        <v>6.6999998092651367</v>
       </c>
       <c r="B266">
-        <v>58.40000152587891</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>58.400001525878913</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>24.89999961853027</v>
       </c>
       <c r="B267">
-        <v>64.19999694824219</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>64.199996948242188</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>28.89999961853027</v>
       </c>
       <c r="B268">
-        <v>104.9000015258789</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>104.90000152587891</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>39.70000076293945</v>
+        <v>39.700000762939453</v>
       </c>
       <c r="B269">
-        <v>144.6999969482422</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+        <v>144.69999694824219</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>61.5</v>
       </c>
       <c r="B270">
-        <v>173.6999969482422</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>173.69999694824219</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>119.4000015258789</v>
+        <v>119.40000152587891</v>
       </c>
       <c r="B271">
         <v>185.1000061035156</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>160.8999938964844</v>
       </c>
       <c r="B272">
-        <v>168.6999969482422</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>168.69999694824219</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>223.3000030517578</v>
+        <v>223.30000305175781</v>
       </c>
       <c r="B273">
         <v>141</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>168.3000030517578</v>
+        <v>168.30000305175781</v>
       </c>
       <c r="B274">
         <v>118.3000030517578</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>136.1999969482422</v>
+        <v>136.19999694824219</v>
       </c>
       <c r="B275">
-        <v>97.40000152587891</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>97.400001525878906</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>38.09999847412109</v>
+        <v>38.099998474121087</v>
       </c>
       <c r="B276">
-        <v>71.30000305175781</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>71.300003051757813</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>10.19999980926514</v>
       </c>
       <c r="B277">
-        <v>56.90000152587891</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>56.900001525878913</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>2.599999904632568</v>
+        <v>2.5999999046325679</v>
       </c>
       <c r="B278">
-        <v>55.59999847412109</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>55.599998474121087</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>14.69999980926514</v>
       </c>
       <c r="B279">
-        <v>84.09999847412109</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>84.099998474121094</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>8.699999809265137</v>
+        <v>8.6999998092651367</v>
       </c>
       <c r="B280">
-        <v>118.5999984741211</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>118.59999847412109</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>16.89999961853027</v>
       </c>
@@ -2631,7 +2690,7 @@
         <v>159.8999938964844</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>78</v>
       </c>
@@ -2639,15 +2698,15 @@
         <v>191.1000061035156</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>105.4000015258789</v>
+        <v>105.40000152587891</v>
       </c>
       <c r="B283">
         <v>184.8999938964844</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>249.8999938964844</v>
       </c>
@@ -2655,7 +2714,7 @@
         <v>182.6000061035156</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>124.3000030517578</v>
       </c>
@@ -2663,7 +2722,7 @@
         <v>150.1000061035156</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>105</v>
       </c>
@@ -2671,55 +2730,55 @@
         <v>116.5</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>7.800000190734863</v>
+        <v>7.8000001907348633</v>
       </c>
       <c r="B287">
-        <v>88.19999694824219</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>88.199996948242188</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>28.5</v>
       </c>
       <c r="B288">
-        <v>68.30000305175781</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>68.300003051757813</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>21.29999923706055</v>
       </c>
       <c r="B289">
-        <v>56.29999923706055</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>56.299999237060547</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="B290">
         <v>44.5</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>10.30000019073486</v>
       </c>
       <c r="B291">
-        <v>56.20000076293945</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>56.200000762939453</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>8.100000381469727</v>
+        <v>8.1000003814697266</v>
       </c>
       <c r="B292">
         <v>108.6999969482422</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>18</v>
       </c>
@@ -2727,7 +2786,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>46.5</v>
       </c>
@@ -2735,55 +2794,55 @@
         <v>170.8999938964844</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>75.30000305175781</v>
+        <v>75.300003051757813</v>
       </c>
       <c r="B295">
-        <v>189.1999969482422</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>189.19999694824219</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>110.6999969482422</v>
       </c>
       <c r="B296">
-        <v>166.8000030517578</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <v>166.80000305175781</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>146.3000030517578</v>
+        <v>146.30000305175781</v>
       </c>
       <c r="B297">
-        <v>151.3000030517578</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
+        <v>151.30000305175781</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>148</v>
       </c>
       <c r="B298">
-        <v>115.9000015258789</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>115.90000152587891</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>62</v>
       </c>
       <c r="B299">
-        <v>92.09999847412109</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>92.099998474121094</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>5.400000095367432</v>
+        <v>5.4000000953674316</v>
       </c>
       <c r="B300">
-        <v>67.80000305175781</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>67.800003051757813</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4.5</v>
       </c>
@@ -2791,7 +2850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>25.20000076293945</v>
       </c>
@@ -2799,7 +2858,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>19.60000038146973</v>
       </c>
@@ -2807,7 +2866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>11.19999980926514</v>
       </c>
@@ -2815,127 +2874,127 @@
         <v>116.3000030517578</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>37.40000152587891</v>
+        <v>37.400001525878913</v>
       </c>
       <c r="B305">
         <v>147.3999938964844</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>84.30000305175781</v>
+        <v>84.300003051757813</v>
       </c>
       <c r="B306">
         <v>177.8999938964844</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>76.90000152587891</v>
+        <v>76.900001525878906</v>
       </c>
       <c r="B307">
         <v>192.1000061035156</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>156.5</v>
       </c>
       <c r="B308">
-        <v>171.8000030517578</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
+        <v>171.80000305175781</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>79.69999694824219</v>
+        <v>79.699996948242188</v>
       </c>
       <c r="B309">
-        <v>155.3000030517578</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
+        <v>155.30000305175781</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>90.40000152587891</v>
+        <v>90.400001525878906</v>
       </c>
       <c r="B310">
         <v>107.6999969482422</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>6.699999809265137</v>
+        <v>6.6999998092651367</v>
       </c>
       <c r="B311">
-        <v>93.59999847412109</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
+        <v>93.599998474121094</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>42.40000152587891</v>
+        <v>42.400001525878913</v>
       </c>
       <c r="B312">
-        <v>68.40000152587891</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
+        <v>68.400001525878906</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>8.699999809265137</v>
+        <v>8.6999998092651367</v>
       </c>
       <c r="B313">
-        <v>49.90000152587891</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
+        <v>49.900001525878913</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B314">
-        <v>60.20000076293945</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
+        <v>60.200000762939453</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>22.89999961853027</v>
       </c>
       <c r="B315">
-        <v>69.40000152587891</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
+        <v>69.400001525878906</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>70.30000305175781</v>
+        <v>70.300003051757813</v>
       </c>
       <c r="B316">
         <v>102.5</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>4.800000190734863</v>
+        <v>4.8000001907348633</v>
       </c>
       <c r="B317">
         <v>145.8999938964844</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>29.10000038146973</v>
       </c>
       <c r="B318">
-        <v>198.1999969482422</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
+        <v>198.19999694824219</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>71.80000305175781</v>
+        <v>71.800003051757813</v>
       </c>
       <c r="B319">
         <v>165.6000061035156</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>249</v>
       </c>
@@ -2943,47 +3002,47 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>94.90000152587891</v>
+        <v>94.900001525878906</v>
       </c>
       <c r="B321">
-        <v>150.3000030517578</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
+        <v>150.30000305175781</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>33.40000152587891</v>
+        <v>33.400001525878913</v>
       </c>
       <c r="B322">
         <v>116.5</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>23</v>
       </c>
       <c r="B323">
-        <v>90.40000152587891</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
+        <v>90.400001525878906</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>7.800000190734863</v>
+        <v>7.8000001907348633</v>
       </c>
       <c r="B324">
-        <v>71.59999847412109</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
+        <v>71.599998474121094</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>10.30000019073486</v>
       </c>
       <c r="B325">
-        <v>52.59999847412109</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
+        <v>52.599998474121087</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>28</v>
       </c>
@@ -2991,39 +3050,39 @@
         <v>44</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>5.800000190734863</v>
+        <v>5.8000001907348633</v>
       </c>
       <c r="B327">
-        <v>65.30000305175781</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
+        <v>65.300003051757813</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>9.600000381469727</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="B328">
-        <v>117.0999984741211</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
+        <v>117.09999847412109</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>60.09999847412109</v>
+        <v>60.099998474121087</v>
       </c>
       <c r="B329">
         <v>137.3999938964844</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>68.90000152587891</v>
+        <v>68.900001525878906</v>
       </c>
       <c r="B330">
         <v>177.3999938964844</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>31.79999923706055</v>
       </c>
@@ -3031,79 +3090,79 @@
         <v>169.6000061035156</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>145.6999969482422</v>
+        <v>145.69999694824219</v>
       </c>
       <c r="B332">
         <v>168.3999938964844</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>96.80000305175781</v>
+        <v>96.800003051757813</v>
       </c>
       <c r="B333">
         <v>157.3999938964844</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>100.9000015258789</v>
+        <v>100.90000152587891</v>
       </c>
       <c r="B334">
         <v>115.3000030517578</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>25.79999923706055</v>
       </c>
       <c r="B335">
-        <v>90.90000152587891</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
+        <v>90.900001525878906</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>14</v>
       </c>
       <c r="B336">
-        <v>70.30000305175781</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
+        <v>70.300003051757813</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="B337">
         <v>59.5</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B338">
         <v>54.5</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>27</v>
       </c>
       <c r="B339">
-        <v>61.79999923706055</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
+        <v>61.799999237060547</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>28.29999923706055</v>
       </c>
       <c r="B340">
-        <v>108.9000015258789</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
+        <v>108.90000152587891</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>33.5</v>
       </c>
@@ -3111,23 +3170,23 @@
         <v>139.8999938964844</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>107.4000015258789</v>
+        <v>107.40000152587891</v>
       </c>
       <c r="B342">
         <v>166</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>48.5</v>
       </c>
       <c r="B343">
-        <v>185.8000030517578</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
+        <v>185.80000305175781</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>101</v>
       </c>
@@ -3135,7 +3194,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>167.3999938964844</v>
       </c>
@@ -3143,95 +3202,95 @@
         <v>149.1000061035156</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>58.40000152587891</v>
+        <v>58.400001525878913</v>
       </c>
       <c r="B346">
-        <v>110.9000015258789</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
+        <v>110.90000152587891</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>26.70000076293945</v>
       </c>
       <c r="B347">
-        <v>91.69999694824219</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
+        <v>91.699996948242188</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>49.79999923706055</v>
+        <v>49.799999237060547</v>
       </c>
       <c r="B348">
         <v>61</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>3.5</v>
       </c>
       <c r="B349">
-        <v>52.59999847412109</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
+        <v>52.599998474121087</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B350">
-        <v>52.90000152587891</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
+        <v>52.900001525878913</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>17.10000038146973</v>
       </c>
       <c r="B351">
-        <v>59.20000076293945</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
+        <v>59.200000762939453</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>23.5</v>
       </c>
       <c r="B352">
-        <v>101.9000015258789</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
+        <v>101.90000152587891</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>61.79999923706055</v>
+        <v>61.799999237060547</v>
       </c>
       <c r="B353">
-        <v>130.6999969482422</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
+        <v>130.69999694824219</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>56.70000076293945</v>
+        <v>56.700000762939453</v>
       </c>
       <c r="B354">
         <v>164</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>35.40000152587891</v>
+        <v>35.400001525878913</v>
       </c>
       <c r="B355">
         <v>175.3999938964844</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>249.5</v>
       </c>
       <c r="B356">
-        <v>154.6999969482422</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
+        <v>154.69999694824219</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>168.1000061035156</v>
       </c>
@@ -3239,63 +3298,63 @@
         <v>146.8999938964844</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>107.0999984741211</v>
+        <v>107.09999847412109</v>
       </c>
       <c r="B358">
-        <v>111.9000015258789</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
+        <v>111.90000152587891</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>12.89999961853027</v>
       </c>
       <c r="B359">
-        <v>95.90000152587891</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
+        <v>95.900001525878906</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
       <c r="B360">
-        <v>66.69999694824219</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
+        <v>66.699996948242188</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="B361">
-        <v>63.59999847412109</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
+        <v>63.599998474121087</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B362">
-        <v>52.79999923706055</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
+        <v>52.799999237060547</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>25.39999961853027</v>
       </c>
       <c r="B363">
-        <v>58.29999923706055</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
+        <v>58.299999237060547</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>4.099999904632568</v>
+        <v>4.0999999046325684</v>
       </c>
       <c r="B364">
-        <v>105.4000015258789</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
+        <v>105.40000152587891</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>10.89999961853027</v>
       </c>
@@ -3303,31 +3362,31 @@
         <v>154</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>47.40000152587891</v>
+        <v>47.400001525878913</v>
       </c>
       <c r="B366">
-        <v>170.1999969482422</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
+        <v>170.19999694824219</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>19.70000076293945</v>
       </c>
       <c r="B367">
-        <v>176.1999969482422</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
+        <v>176.19999694824219</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>130.3000030517578</v>
+        <v>130.30000305175781</v>
       </c>
       <c r="B368">
-        <v>170.3000030517578</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
+        <v>170.30000305175781</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>135.1000061035156</v>
       </c>
@@ -3335,7 +3394,7 @@
         <v>134.5</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>282.5</v>
       </c>
@@ -3343,63 +3402,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>49.5</v>
       </c>
       <c r="B371">
-        <v>93.59999847412109</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
+        <v>93.599998474121094</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>106.9000015258789</v>
+        <v>106.90000152587891</v>
       </c>
       <c r="B372">
-        <v>61.79999923706055</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
+        <v>61.799999237060547</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>5.300000190734863</v>
+        <v>5.3000001907348633</v>
       </c>
       <c r="B373">
         <v>54</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>4.099999904632568</v>
+        <v>4.0999999046325684</v>
       </c>
       <c r="B374">
-        <v>49.40000152587891</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
+        <v>49.400001525878913</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B375">
-        <v>58.70000076293945</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
+        <v>58.700000762939453</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>35.09999847412109</v>
+        <v>35.099998474121087</v>
       </c>
       <c r="B376">
-        <v>97.19999694824219</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
+        <v>97.199996948242188</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>35.79999923706055</v>
+        <v>35.799999237060547</v>
       </c>
       <c r="B377">
-        <v>142.6999969482422</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
+        <v>142.69999694824219</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>21.79999923706055</v>
       </c>
@@ -3407,95 +3466,95 @@
         <v>162.3999938964844</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>25.39999961853027</v>
       </c>
       <c r="B379">
-        <v>178.3000030517578</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
+        <v>178.30000305175781</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>145.8000030517578</v>
+        <v>145.80000305175781</v>
       </c>
       <c r="B380">
-        <v>169.8000030517578</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
+        <v>169.80000305175781</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>109.5999984741211</v>
+        <v>109.59999847412109</v>
       </c>
       <c r="B381">
         <v>148</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>72.80000305175781</v>
+        <v>72.800003051757813</v>
       </c>
       <c r="B382">
-        <v>118.0999984741211</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
+        <v>118.09999847412109</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>14</v>
       </c>
       <c r="B383">
-        <v>92.90000152587891</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
+        <v>92.900001525878906</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>8.800000190734863</v>
+        <v>8.8000001907348633</v>
       </c>
       <c r="B384">
-        <v>70.40000152587891</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
+        <v>70.400001525878906</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>11.30000019073486</v>
       </c>
       <c r="B385">
-        <v>54.09999847412109</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
+        <v>54.099998474121087</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7.5</v>
       </c>
       <c r="B386">
-        <v>46.40000152587891</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
+        <v>46.400001525878913</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>20.20000076293945</v>
       </c>
       <c r="B387">
-        <v>59.79999923706055</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
+        <v>59.799999237060547</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>4.699999809265137</v>
+        <v>4.6999998092651367</v>
       </c>
       <c r="B388">
-        <v>117.0999984741211</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
+        <v>117.09999847412109</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>33.20000076293945</v>
+        <v>33.200000762939453</v>
       </c>
       <c r="B389">
-        <v>144.6999969482422</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
+        <v>144.69999694824219</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>131.3999938964844</v>
       </c>
@@ -3503,31 +3562,31 @@
         <v>170.3999938964844</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>28.79999923706055</v>
       </c>
       <c r="B391">
-        <v>177.6999969482422</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
+        <v>177.69999694824219</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>159.8000030517578</v>
+        <v>159.80000305175781</v>
       </c>
       <c r="B392">
         <v>168.1000061035156</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>49.90000152587891</v>
+        <v>49.900001525878913</v>
       </c>
       <c r="B393">
-        <v>178.1999969482422</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
+        <v>178.19999694824219</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>14.30000019073486</v>
       </c>
@@ -3535,87 +3594,87 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>31.39999961853027</v>
       </c>
       <c r="B395">
-        <v>93.09999847412109</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
+        <v>93.099998474121094</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>41.09999847412109</v>
+        <v>41.099998474121087</v>
       </c>
       <c r="B396">
-        <v>66.90000152587891</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
+        <v>66.900001525878906</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B397">
-        <v>49.09999847412109</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
+        <v>49.099998474121087</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>0.6000000238418579</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="B398">
-        <v>58.70000076293945</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
+        <v>58.700000762939453</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>32.70000076293945</v>
+        <v>32.700000762939453</v>
       </c>
       <c r="B399">
-        <v>54.40000152587891</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
+        <v>54.400001525878913</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>8.699999809265137</v>
+        <v>8.6999998092651367</v>
       </c>
       <c r="B400">
-        <v>115.4000015258789</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
+        <v>115.40000152587891</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>89.80000305175781</v>
+        <v>89.800003051757813</v>
       </c>
       <c r="B401">
         <v>130.5</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>54.29999923706055</v>
+        <v>54.299999237060547</v>
       </c>
       <c r="B402">
         <v>184.5</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>33.40000152587891</v>
+        <v>33.400001525878913</v>
       </c>
       <c r="B403">
-        <v>174.3000030517578</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
+        <v>174.30000305175781</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>39.40000152587891</v>
+        <v>39.400001525878913</v>
       </c>
       <c r="B404">
         <v>201</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>108.3000030517578</v>
       </c>
@@ -3623,7 +3682,7 @@
         <v>156.1000061035156</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>237.3999938964844</v>
       </c>
@@ -3631,39 +3690,39 @@
         <v>116.3000030517578</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>24.10000038146973</v>
       </c>
       <c r="B407">
-        <v>98.40000152587891</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
+        <v>98.400001525878906</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>17.70000076293945</v>
       </c>
       <c r="B408">
-        <v>68.69999694824219</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
+        <v>68.699996948242188</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B409">
-        <v>66.19999694824219</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
+        <v>66.199996948242188</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="B410">
-        <v>56.59999847412109</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
+        <v>56.599998474121087</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>4</v>
       </c>
@@ -3671,7 +3730,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>33.5</v>
       </c>
@@ -3679,39 +3738,39 @@
         <v>103.3000030517578</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>85.90000152587891</v>
+        <v>85.900001525878906</v>
       </c>
       <c r="B413">
         <v>139.8999938964844</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>70.90000152587891</v>
+        <v>70.900001525878906</v>
       </c>
       <c r="B414">
         <v>171.6000061035156</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>115.4000015258789</v>
+        <v>115.40000152587891</v>
       </c>
       <c r="B415">
         <v>167.3999938964844</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>49.20000076293945</v>
+        <v>49.200000762939453</v>
       </c>
       <c r="B416">
-        <v>179.3000030517578</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
+        <v>179.30000305175781</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>92</v>
       </c>
@@ -3719,63 +3778,63 @@
         <v>159.5</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>46.59999847412109</v>
+        <v>46.599998474121087</v>
       </c>
       <c r="B418">
         <v>121.8000030517578</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>73.09999847412109</v>
+        <v>73.099998474121094</v>
       </c>
       <c r="B419">
-        <v>104.9000015258789</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
+        <v>104.90000152587891</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>73.69999694824219</v>
+        <v>73.699996948242188</v>
       </c>
       <c r="B420">
-        <v>62.20000076293945</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
+        <v>62.200000762939453</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>0.300000011920929</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="B421">
-        <v>56.70000076293945</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
+        <v>56.700000762939453</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>1.600000023841858</v>
+        <v>1.6000000238418579</v>
       </c>
       <c r="B422">
-        <v>51.90000152587891</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
+        <v>51.900001525878913</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>16.60000038146973</v>
       </c>
       <c r="B423">
-        <v>75.40000152587891</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
+        <v>75.400001525878906</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>2.099999904632568</v>
+        <v>2.0999999046325679</v>
       </c>
       <c r="B424">
-        <v>109.9000015258789</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
+        <v>109.90000152587891</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>52</v>
       </c>
@@ -3783,15 +3842,15 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>56.20000076293945</v>
+        <v>56.200000762939453</v>
       </c>
       <c r="B426">
         <v>172.8999938964844</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>100.8000030517578</v>
       </c>
@@ -3799,71 +3858,71 @@
         <v>182.1000061035156</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>228.6999969482422</v>
+        <v>228.69999694824219</v>
       </c>
       <c r="B428">
         <v>180.8999938964844</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>65.90000152587891</v>
+        <v>65.900001525878906</v>
       </c>
       <c r="B429">
-        <v>169.1999969482422</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
+        <v>169.19999694824219</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>66.69999694824219</v>
+        <v>66.699996948242188</v>
       </c>
       <c r="B430">
-        <v>126.5999984741211</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
+        <v>126.59999847412109</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>108.5</v>
       </c>
       <c r="B431">
-        <v>90.19999694824219</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
+        <v>90.199996948242188</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>45.5</v>
       </c>
       <c r="B432">
-        <v>62.40000152587891</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
+        <v>62.400001525878913</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>16.20000076293945</v>
       </c>
       <c r="B433">
-        <v>53.29999923706055</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
+        <v>53.299999237060547</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>16.5</v>
       </c>
       <c r="B434">
-        <v>57.79999923706055</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2">
+        <v>57.799999237060547</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>14.30000019073486</v>
       </c>
       <c r="B435">
-        <v>71.40000152587891</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
+        <v>71.400001525878906</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>11.80000019073486</v>
       </c>
@@ -3871,39 +3930,39 @@
         <v>104.3000030517578</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>39</v>
       </c>
       <c r="B437">
-        <v>146.3000030517578</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
+        <v>146.30000305175781</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>54.09999847412109</v>
+        <v>54.099998474121087</v>
       </c>
       <c r="B438">
-        <v>191.8000030517578</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2">
+        <v>191.80000305175781</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>84.90000152587891</v>
+        <v>84.900001525878906</v>
       </c>
       <c r="B439">
         <v>178</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>94.09999847412109</v>
+        <v>94.099998474121094</v>
       </c>
       <c r="B440">
         <v>204.8999938964844</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>116.8000030517578</v>
       </c>
@@ -3911,55 +3970,55 @@
         <v>171.3999938964844</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>94.59999847412109</v>
+        <v>94.599998474121094</v>
       </c>
       <c r="B442">
         <v>119.1999969482422</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>100.4000015258789</v>
+        <v>100.40000152587891</v>
       </c>
       <c r="B443">
-        <v>88.69999694824219</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
+        <v>88.699996948242188</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4</v>
       </c>
       <c r="B444">
-        <v>77.09999847412109</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
+        <v>77.099998474121094</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>0.8999999761581421</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="B445">
-        <v>66.59999847412109</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
+        <v>66.599998474121094</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>26.5</v>
       </c>
       <c r="B446">
-        <v>55.40000152587891</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
+        <v>55.400001525878913</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>8.100000381469727</v>
+        <v>8.1000003814697266</v>
       </c>
       <c r="B447">
-        <v>69.80000305175781</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
+        <v>69.800003051757813</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>17.5</v>
       </c>
@@ -3967,31 +4026,31 @@
         <v>120.1999969482422</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>76.80000305175781</v>
+        <v>76.800003051757813</v>
       </c>
       <c r="B449">
-        <v>151.1999969482422</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
+        <v>151.19999694824219</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>99.40000152587891</v>
+        <v>99.400001525878906</v>
       </c>
       <c r="B450">
         <v>170.6000061035156</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>106.5999984741211</v>
+        <v>106.59999847412109</v>
       </c>
       <c r="B451">
         <v>186.6000061035156</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>116.6999969482422</v>
       </c>
@@ -3999,95 +4058,95 @@
         <v>190</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>42.29999923706055</v>
+        <v>42.299999237060547</v>
       </c>
       <c r="B453">
-        <v>186.6999969482422</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2">
+        <v>186.69999694824219</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>102.5999984741211</v>
+        <v>102.59999847412109</v>
       </c>
       <c r="B454">
-        <v>132.6999969482422</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
+        <v>132.69999694824219</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="B455">
         <v>108</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>33.29999923706055</v>
+        <v>33.299999237060547</v>
       </c>
       <c r="B456">
-        <v>70.19999694824219</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
+        <v>70.199996948242188</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>9</v>
       </c>
       <c r="B457">
-        <v>58.09999847412109</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2">
+        <v>58.099998474121087</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="B458">
-        <v>55.59999847412109</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
+        <v>55.599998474121087</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>7.5</v>
       </c>
       <c r="B459">
-        <v>57.29999923706055</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
+        <v>57.299999237060547</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>2.900000095367432</v>
+        <v>2.9000000953674321</v>
       </c>
       <c r="B460">
-        <v>121.5999984741211</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
+        <v>121.59999847412109</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>43.29999923706055</v>
+        <v>43.299999237060547</v>
       </c>
       <c r="B461">
         <v>142.6000061035156</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>4.599999904632568</v>
+        <v>4.5999999046325684</v>
       </c>
       <c r="B462">
         <v>188.3999938964844</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>107.4000015258789</v>
+        <v>107.40000152587891</v>
       </c>
       <c r="B463">
         <v>188.3999938964844</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>46</v>
       </c>
@@ -4095,63 +4154,63 @@
         <v>190</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>124.6999969482422</v>
       </c>
       <c r="B465">
-        <v>167.1999969482422</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2">
+        <v>167.19999694824219</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>77.59999847412109</v>
+        <v>77.599998474121094</v>
       </c>
       <c r="B466">
         <v>133.5</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>93.30000305175781</v>
+        <v>93.300003051757813</v>
       </c>
       <c r="B467">
-        <v>98.09999847412109</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
+        <v>98.099998474121094</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>1.299999952316284</v>
       </c>
       <c r="B468">
-        <v>78.80000305175781</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
+        <v>78.800003051757813</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>3.599999904632568</v>
+        <v>3.5999999046325679</v>
       </c>
       <c r="B469">
-        <v>63.79999923706055</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
+        <v>63.799999237060547</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>45.5</v>
       </c>
       <c r="B470">
-        <v>49.79999923706055</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
+        <v>49.799999237060547</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>21.79999923706055</v>
       </c>
       <c r="B471">
-        <v>77.69999694824219</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
+        <v>77.699996948242188</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>30.70000076293945</v>
       </c>
@@ -4159,23 +4218,23 @@
         <v>122.6999969482422</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>10.69999980926514</v>
       </c>
       <c r="B473">
-        <v>149.6999969482422</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
+        <v>149.69999694824219</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>46.59999847412109</v>
+        <v>46.599998474121087</v>
       </c>
       <c r="B474">
         <v>201.5</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>123.8000030517578</v>
       </c>
@@ -4183,23 +4242,23 @@
         <v>181.1000061035156</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>89</v>
       </c>
       <c r="B476">
-        <v>171.8000030517578</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
+        <v>171.80000305175781</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>169.6000061035156</v>
       </c>
       <c r="B477">
-        <v>166.8000030517578</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
+        <v>166.80000305175781</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>18</v>
       </c>
@@ -4207,31 +4266,33 @@
         <v>133.8999938964844</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>34.20000076293945</v>
+        <v>34.200000762939453</v>
       </c>
       <c r="B479">
         <v>90</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>32.20000076293945</v>
+        <v>32.200000762939453</v>
       </c>
       <c r="B480">
-        <v>75.09999847412109</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
+        <v>75.099998474121094</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>4.599999904632568</v>
+        <v>4.5999999046325684</v>
       </c>
       <c r="B481">
-        <v>55.79999923706055</v>
+        <v>55.799999237060547</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>